--- a/pictures/adjacency_mat_pub.xlsx
+++ b/pictures/adjacency_mat_pub.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinpsywoo/github/wanirepo.github.io/pictures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="only_CUB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>FMRI-based biomarker</t>
   </si>
@@ -136,6 +142,33 @@
   </si>
   <si>
     <t>Woo</t>
+  </si>
+  <si>
+    <t>2015 ScienceSupple</t>
+  </si>
+  <si>
+    <t>2015 Neuroimage</t>
+  </si>
+  <si>
+    <t>2016 PAIN</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Marieke</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Hedwig</t>
+  </si>
+  <si>
+    <t>Yoni</t>
+  </si>
+  <si>
+    <t>Zeb</t>
   </si>
 </sst>
 </file>
@@ -492,6 +525,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -819,18 +857,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="40" width="3" customWidth="1"/>
     <col min="41" max="41" width="3.5" customWidth="1"/>
     <col min="42" max="42" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -987,7 +1025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>15</v>
       </c>
@@ -1109,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>15</v>
       </c>
@@ -1232,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>15</v>
       </c>
@@ -1355,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>15</v>
       </c>
@@ -1478,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1605,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1732,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1859,7 +1897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1986,7 +2024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2113,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2240,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>36</v>
       </c>
@@ -2367,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>150</v>
       </c>
@@ -2494,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2621,7 +2659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2748,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2875,7 +2913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:42">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>4</v>
       </c>
@@ -2998,7 +3036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:42">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>4</v>
       </c>
@@ -3121,7 +3159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:42">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>4</v>
       </c>
@@ -3244,7 +3282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>4</v>
       </c>
@@ -3367,7 +3405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:42" ht="16">
+    <row r="21" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -3490,7 +3528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:42" ht="16">
+    <row r="22" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4</v>
       </c>
@@ -3613,7 +3651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:42" ht="16">
+    <row r="23" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4</v>
       </c>
@@ -3736,7 +3774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="16">
+    <row r="24" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>4</v>
       </c>
@@ -3859,7 +3897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:42" ht="16">
+    <row r="25" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>4</v>
       </c>
@@ -3982,7 +4020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:42" ht="16">
+    <row r="26" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>4</v>
       </c>
@@ -4105,7 +4143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:42" ht="16">
+    <row r="27" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>4</v>
       </c>
@@ -4228,7 +4266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="16">
+    <row r="28" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>4</v>
       </c>
@@ -4351,7 +4389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:42" ht="16">
+    <row r="29" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>4</v>
       </c>
@@ -4474,7 +4512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:42" ht="16">
+    <row r="30" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>4</v>
       </c>
@@ -4597,7 +4635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:42" ht="16">
+    <row r="31" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>4</v>
       </c>
@@ -4720,7 +4758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:42" ht="16">
+    <row r="32" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>4</v>
       </c>
@@ -4843,7 +4881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:42" ht="16">
+    <row r="33" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>4</v>
       </c>
@@ -4966,7 +5004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:42" ht="16">
+    <row r="34" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>4</v>
       </c>
@@ -5089,7 +5127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:42" ht="16">
+    <row r="35" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>4</v>
       </c>
@@ -5212,7 +5250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:42" ht="16">
+    <row r="36" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>4</v>
       </c>
@@ -5335,7 +5373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:42" ht="16">
+    <row r="37" spans="2:42" ht="17" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>4</v>
       </c>
@@ -5461,10 +5499,5004 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="45" width="3" customWidth="1"/>
+    <col min="46" max="46" width="3.5" customWidth="1"/>
+    <col min="47" max="47" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <f>E1+1</f>
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" ref="G1:H1" si="0">F1+1</f>
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I1" s="3">
+        <f>H1+1</f>
+        <v>5</v>
+      </c>
+      <c r="J1" s="3">
+        <f t="shared" ref="J1:S1" si="1">I1+1</f>
+        <v>6</v>
+      </c>
+      <c r="K1" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L1" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M1" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N1" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O1" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P1" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R1" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S1" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D33" si="2">D3+1</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <f>D5+1</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="D7" s="3">
+        <f>D6+1</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D16" si="3">D7+1</f>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>A9+3</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B16" si="4">A10+3</f>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16+1</f>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="4">
+        <f>D33+1</f>
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="4">
+        <f t="shared" ref="D35:D39" si="5">D34+1</f>
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="4">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="4">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="4">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="4">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>